--- a/Datos/Database by set/Set with text box/Xlsx sets/Worldwake Promos (PWWK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Worldwake Promos (PWWK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,224 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Celestial Colonnade</t>
+          <t>('Celestial Colonnade', ['Land', 'Celestial Colonnade enters the battlefield tapped.', '{T}: Add {W} or {U}.', '{3}{W}{U}: Until end of turn, Celestial Colonnade becomes a 4/4 white and blue Elemental creature with flying and vigilance. It’s still a land.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Comet Storm', ['{X}{R}{R}', 'Instant', 'Multikicker {1} (You may pay an additional {1} any number of times as you cast this spell.)', 'Choose any target, then choose another target for each time this spell was kicked. Comet Storm deals X damage to each of them.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Celestial Colonnade enters the battlefield tapped.</t>
+          <t>('Hada Freeblade', ['{W}', 'Creature — Human Soldier Ally', 'Whenever Hada Freeblade or another Ally enters the battlefield under your control, you may put a +1/+1 counter on Hada Freeblade.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{T}: Add {W} or {U}.</t>
+          <t>('Joraga Warcaller', ['{G}', 'Creature — Elf Warrior', 'Multikicker {1}{G} (You may pay an additional {1}{G} any number of times as you cast this spell.)', 'Joraga Warcaller enters the battlefield with a +1/+1 counter on it for each time it was kicked.', 'Other Elf creatures you control get +1/+1 for each +1/+1 counter on Joraga Warcaller.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{3}{W}{U}: Until end of turn, Celestial Colonnade becomes a 4/4 white and blue Elemental creature with flying and vigilance. It’s still a land.</t>
+          <t>('Kalastria Highborn', ['{B}{B}', 'Creature — Vampire Shaman', 'Whenever Kalastria Highborn or another Vampire you control dies, you may pay {B}. If you do, target player loses 2 life and you gain 2 life.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Comet Storm</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{X}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Multikicker {1} (You may pay an additional {1} any number of times as you cast this spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Choose any target, then choose another target for each time this spell was kicked. Comet Storm deals X damage to each of them.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hada Freeblade</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Whenever Hada Freeblade or another Ally enters the battlefield under your control, you may put a +1/+1 counter on Hada Freeblade.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Joraga Warcaller</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Multikicker {1}{G} (You may pay an additional {1}{G} any number of times as you cast this spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Joraga Warcaller enters the battlefield with a +1/+1 counter on it for each time it was kicked.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Other Elf creatures you control get +1/+1 for each +1/+1 counter on Joraga Warcaller.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Kalastria Highborn</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Vampire Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Whenever Kalastria Highborn or another Vampire you control dies, you may pay {B}. If you do, target player loses 2 life and you gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ruthless Cullblade</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Vampire Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ruthless Cullblade gets +2/+1 as long as an opponent has 10 or less life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/1</t>
+          <t>('Ruthless Cullblade', ['{1}{B}', 'Creature — Vampire Warrior', 'Ruthless Cullblade gets +2/+1 as long as an opponent has 10 or less life.', '2/1'])</t>
         </is>
       </c>
     </row>
